--- a/main/Actual vs Predicted.xlsx
+++ b/main/Actual vs Predicted.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Actual</t>
@@ -453,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +469,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +480,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -486,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +502,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +513,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -519,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +535,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -552,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -585,7 +590,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -596,7 +601,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -607,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -618,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -629,7 +634,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -640,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -651,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -662,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -673,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -695,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -728,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -739,7 +744,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -772,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -783,7 +788,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -794,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -805,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -816,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -827,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -838,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -849,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -860,7 +865,7 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -871,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -882,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -893,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -926,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -937,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -948,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -959,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -970,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -981,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -992,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -1003,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -1014,7 +1019,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1025,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1047,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -1058,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1091,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -1102,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -1113,7 +1118,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -1124,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -1135,7 +1140,7 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -1146,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1157,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1168,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -1179,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1190,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -1201,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1212,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1223,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -1234,7 +1239,7 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1245,7 +1250,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -1256,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -1267,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -1278,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1289,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1300,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1311,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1322,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1333,7 +1338,7 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1344,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1355,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1366,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1377,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1388,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1399,7 +1404,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1410,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1421,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1432,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1443,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1454,7 +1459,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1465,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1476,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1487,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -1498,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1509,7 +1514,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1520,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1531,7 +1536,7 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1542,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1553,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1564,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1575,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1586,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1597,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1608,7 +1613,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1619,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1630,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1641,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1652,7 +1657,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1663,7 +1668,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1674,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1685,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1696,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1707,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1718,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1729,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1740,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1751,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1762,7 +1767,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1773,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1795,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1806,7 +1811,7 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1817,7 +1822,7 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1828,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1839,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1850,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1861,7 +1866,7 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1872,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1883,7 +1888,7 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1894,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1905,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1916,7 +1921,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1927,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -1938,7 +1943,7 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1949,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -2004,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2015,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -2026,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -2037,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -2048,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -2059,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -2070,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -2081,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -2092,7 +2097,7 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -2103,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -2114,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -2125,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -2136,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -2147,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2158,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2169,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2180,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2191,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2202,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2213,7 +2218,7 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2224,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2235,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2246,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2257,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2268,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2279,7 +2284,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2290,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2301,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2312,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2323,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2334,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2345,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2356,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2367,7 +2372,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2378,7 +2383,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2389,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2400,7 +2405,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2411,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2422,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2433,7 +2438,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2444,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2455,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2466,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2477,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2488,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2499,7 +2504,7 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2510,7 +2515,7 @@
         <v>0</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2521,7 +2526,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2532,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2543,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2554,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2565,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2576,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2587,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2598,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2609,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="C198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2653,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2664,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="C203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2675,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2686,7 +2691,7 @@
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2697,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2708,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2719,7 +2724,7 @@
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2763,7 +2768,7 @@
         <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2785,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2796,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2807,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2818,7 +2823,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2829,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2840,7 +2845,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2851,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2862,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2873,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2884,7 +2889,7 @@
         <v>1</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2895,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2906,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2917,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2928,7 +2933,7 @@
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2961,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2972,7 +2977,7 @@
         <v>1</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2983,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2994,7 +2999,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -3005,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -3016,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -3027,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -3071,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -3082,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -3093,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -3104,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -3126,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -3137,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -3181,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -3192,7 +3197,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -3203,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
